--- a/Excel/098_Testes_Entrevistas_6.xlsx
+++ b/Excel/098_Testes_Entrevistas_6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Curso de Excel\Testes Entrevistas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E330CF47-25E6-467C-8D19-803E18710313}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9FB9D9-D1ED-41F3-9512-1DE927059DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C162B555-F4AE-41AA-9236-C559E5C69857}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" activeTab="1" xr2:uid="{C162B555-F4AE-41AA-9236-C559E5C69857}"/>
   </bookViews>
   <sheets>
     <sheet name="Teste 6" sheetId="1" r:id="rId1"/>
@@ -101,9 +101,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -257,7 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -272,27 +271,24 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -311,6 +307,1976 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Salários</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dados!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valor Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1DEE-4D7F-B1B0-2B75C1C45A41}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-1DEE-4D7F-B1B0-2B75C1C45A41}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1DEE-4D7F-B1B0-2B75C1C45A41}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-1DEE-4D7F-B1B0-2B75C1C45A41}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1DEE-4D7F-B1B0-2B75C1C45A41}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-1DEE-4D7F-B1B0-2B75C1C45A41}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dados!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Maria</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pedro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Allan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ricardo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mafalda</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Francisco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dados!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1DEE-4D7F-B1B0-2B75C1C45A41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="886603280"/>
+        <c:axId val="886601840"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="886603280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="886601840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="886601840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="886603280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dados!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valor Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dados!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Maria</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pedro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Allan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ricardo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mafalda</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Francisco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dados!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2054-4469-B3AA-84A696DFC304}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="886589600"/>
+        <c:axId val="886588160"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="886589600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="886588160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="886588160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="886589600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>634092</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>84363</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>89807</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8A57BB6-D9BC-5FDA-EAD4-2EAD5A01C87A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>634092</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>160564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>84363</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>127907</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B479064-4A3F-0BD0-5EA8-40CED35CB4AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -612,18 +2578,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D957BC4-26C5-4A20-AE58-7946F32FE6C5}">
   <dimension ref="B1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="113.6640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="4.23046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="113.69140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:14" s="9" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:14" s="6" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="10" t="s">
         <v>19</v>
       </c>
@@ -640,7 +2608,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="2:14" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" s="6" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -655,7 +2623,7 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="2:14" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" s="6" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -670,79 +2638,79 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="2:14" s="9" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="2:14" s="6" customFormat="1" ht="23.15" x14ac:dyDescent="0.6">
+      <c r="B5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="13" t="s">
+    <row r="6" spans="2:14" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
+    <row r="10" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="2:14" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+    <row r="11" spans="2:14" ht="26.15" x14ac:dyDescent="0.4">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
-    <row r="14" spans="2:14" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="8" t="s">
+    <row r="14" spans="2:14" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="8"/>
-      <c r="C15" s="7"/>
+    <row r="15" spans="2:14" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="13"/>
+      <c r="C15" s="12"/>
     </row>
-    <row r="16" spans="2:14" ht="29.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="8"/>
-      <c r="C16" s="7"/>
+    <row r="16" spans="2:14" ht="29.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="13"/>
+      <c r="C16" s="12"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="8" t="s">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B19" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="8"/>
-      <c r="C20" s="7"/>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B20" s="13"/>
+      <c r="C20" s="12"/>
     </row>
-    <row r="21" spans="2:3" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="8"/>
-      <c r="C21" s="7"/>
+    <row r="21" spans="2:3" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="13"/>
+      <c r="C21" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -761,22 +2729,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA5FE51-CFAE-4142-8D28-1C37D0B58A4C}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="18.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.21875" customWidth="1"/>
+    <col min="2" max="2" width="18.23046875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.07421875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.07421875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.53515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:6" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
@@ -793,7 +2761,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:6" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -803,10 +2771,16 @@
       <c r="D3" s="4">
         <v>4000</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="6"/>
+      <c r="E3" s="4">
+        <f>IF(D3&lt;2000,D3*0.05,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <f>SUM(D3:E3)</f>
+        <v>4000</v>
+      </c>
     </row>
-    <row r="4" spans="2:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
@@ -816,10 +2790,16 @@
       <c r="D4" s="4">
         <v>900</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="6"/>
+      <c r="E4" s="4">
+        <f t="shared" ref="E4:E8" si="0">IF(D4&lt;2000,D4*0.05,0)</f>
+        <v>45</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" ref="F4:F8" si="1">SUM(D4:E4)</f>
+        <v>945</v>
+      </c>
     </row>
-    <row r="5" spans="2:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
@@ -829,10 +2809,16 @@
       <c r="D5" s="4">
         <v>2500</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="6"/>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
     </row>
-    <row r="6" spans="2:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
@@ -842,10 +2828,16 @@
       <c r="D6" s="4">
         <v>3000</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="6"/>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
     </row>
-    <row r="7" spans="2:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
@@ -855,10 +2847,16 @@
       <c r="D7" s="4">
         <v>1000</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="6"/>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="1"/>
+        <v>1050</v>
+      </c>
     </row>
-    <row r="8" spans="2:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
@@ -868,10 +2866,17 @@
       <c r="D8" s="4">
         <v>1000</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="6"/>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="1"/>
+        <v>1050</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>